--- a/01. HUB/medios integracion/Bases Medio Integracion 2024/2024 - Q4/bases/mentions_autores_chile.xlsx
+++ b/01. HUB/medios integracion/Bases Medio Integracion 2024/2024 - Q4/bases/mentions_autores_chile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/Documentos El Barometro/GitHub/BX-HUB-Indicadores/01. HUB/medios integracion/Bases Medio Integracion 2024/2024 - Q4/bases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX-HUB-Indicadores\01. HUB\medios integracion\Bases Medio Integracion 2024\2024 - Q4\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C3FA3B-5E64-D44B-B9D8-3ECA1DFC7590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6D9306-276E-4E4F-AEE8-B302B9123A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="229">
   <si>
     <t>Mention Data Export</t>
   </si>
@@ -359,6 +359,354 @@
   </si>
   <si>
     <t>Categorias BX v.3</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>2024-12-27 13:42:00.000</t>
+  </si>
+  <si>
+    <t>Cordero por dichos de Orellana contra Chomalí por ley de aborto: “Me parece que es crear una disputa ficticia”</t>
+  </si>
+  <si>
+    <t>..."En el caso de cardenal Chomalí, él ha sido un promotor, por lo menos en lo que se refiere a los temas en que yo he trabajo con él, tanto en los temas de Derechos Humanos como en los temas de Migración, siempre he manifestado una buena disposición", añadió...</t>
+  </si>
+  <si>
+    <t>https://www.t13.cl/noticia/politica/cordero-por-dichos-orellana-contra-chomali-por-ley-aborto-me-parece-crear-una-d-27-12-2024</t>
+  </si>
+  <si>
+    <t>t13.cl</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>SOUTH AMERICA</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>{id=24560343, name=Integración, parentName=Copy of Categorias BX v.3, parentId=23504967}</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>0d36b58f1f789b8951879e3e28a3013d</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2024-12-23 14:00:01.000</t>
+  </si>
+  <si>
+    <t>Cardenal Chomalí critica la estigmatización de los migrantes y defiende su integración\n\nhttps://t.co/Fspe6KbHR2 https://t.co/oLhgMmbJUD</t>
+  </si>
+  <si>
+    <t>Cardenal Chomalí critica la estigmatización de los migrantes y defiende su integración https://t.co/Fspe6KbHR2 https://t.co/oLhgMmbJUD</t>
+  </si>
+  <si>
+    <t>http://twitter.com/uchileradio/statuses/1871194050885304500</t>
+  </si>
+  <si>
+    <t>twitter.com</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>CHL.Region Metropolitana de Santiago</t>
+  </si>
+  <si>
+    <t>Región Metropolitana de Santiago</t>
+  </si>
+  <si>
+    <t>CHL.Region Metropolitana de Santiago.Santiago</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>uchileradio</t>
+  </si>
+  <si>
+    <t>https://audiences.brandwatch.com/api/audiences/v1/avatars/twitter/78058372?token=0f1b3d79355bab47e311187159acd2ddb43f75bef9e1426c3793da9e4dfbfbc8</t>
+  </si>
+  <si>
+    <t>{id=23504871, name=Migrantes, parentName=Nacionalidades, parentId=23504860}, {id=24560343, name=Integración, parentName=Copy of Categorias BX v.3, parentId=23504967}</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>https://x.com/uchileradio/status/1871194050885304500/photo/1, https://acortar.link/UNJj1K</t>
+  </si>
+  <si>
+    <t>uchileradio (Diario-Radio UChile)</t>
+  </si>
+  <si>
+    <t>Santiago, Region Metropolitana de Santiago, CHL</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/GffLvdBXIAAxNNd.jpg</t>
+  </si>
+  <si>
+    <t>bdc3aa83b68763790f5bee135058ab39</t>
+  </si>
+  <si>
+    <t>https://t.co/Fspe6KbHR2, https://t.co/oLhgMmbJUD</t>
+  </si>
+  <si>
+    <t>78058372</t>
+  </si>
+  <si>
+    <t>Migrantes</t>
+  </si>
+  <si>
+    <t>2024-12-16 14:46:21.000</t>
+  </si>
+  <si>
+    <t>📍A lo Diego Torres: caos en el Estadio Víctor Jara por migrantes que buscan enrolarse con “esperanza”\n\nSiga leyendo 👇\nhttps://t.co/WjgF13mnFf https://t.co/cHZWXkriG1</t>
+  </si>
+  <si>
+    <t>📍A lo Diego Torres: caos en el Estadio Víctor Jara por migrantes que buscan enrolarse con “esperanza” Siga leyendo 👇 https://t.co/WjgF13mnFf https://t.co/cHZWXkriG1</t>
+  </si>
+  <si>
+    <t>http://twitter.com/elmostrador/statuses/1868668995542618348</t>
+  </si>
+  <si>
+    <t>elmostrador</t>
+  </si>
+  <si>
+    <t>https://audiences.brandwatch.com/api/audiences/v1/avatars/twitter/12815132?token=5901a14f06963c8b12c489906de3a1437d29a4c49e2674a0fa1b14993ba67953</t>
+  </si>
+  <si>
+    <t>https://www.elmostrador.cl/noticias/pais/2024/12/16/a-lo-diego-torres-caos-en-el-estadio-victor-jara-por-migrantes-que-buscan-enrolarse-con-esperanza/, https://x.com/elmostrador/status/1868668995542618348/video/1</t>
+  </si>
+  <si>
+    <t>elmostrador (El Mostrador)</t>
+  </si>
+  <si>
+    <t>b36fc9787216be9ea523e5db98302688</t>
+  </si>
+  <si>
+    <t>https://t.co/cHZWXkriG1, https://t.co/WjgF13mnFf</t>
+  </si>
+  <si>
+    <t>12815132</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>2024-12-16 14:10:29.000</t>
+  </si>
+  <si>
+    <t>📍A lo Diego Torres: caos en el Estadio Víctor Jara por migrantes que buscan enrolarse con “esperanza”\n\nSiga leyendo 👇\nhttps://t.co/WjgF13mnFf https://t.co/TLgwJFxzwG</t>
+  </si>
+  <si>
+    <t>📍A lo Diego Torres: caos en el Estadio Víctor Jara por migrantes que buscan enrolarse con “esperanza” Siga leyendo 👇 https://t.co/WjgF13mnFf https://t.co/TLgwJFxzwG</t>
+  </si>
+  <si>
+    <t>http://twitter.com/elmostrador/statuses/1868659968783835153</t>
+  </si>
+  <si>
+    <t>https://www.elmostrador.cl/noticias/pais/2024/12/16/a-lo-diego-torres-caos-en-el-estadio-victor-jara-por-migrantes-que-buscan-enrolarse-con-esperanza/, https://x.com/elmostrador/status/1868659968783835153/photo/1</t>
+  </si>
+  <si>
+    <t>https://pbs.twimg.com/media/Ge7QUlIXkAAPAFt.png</t>
+  </si>
+  <si>
+    <t>f8dd9b8cd3beb1a984b0d4d84e94a1e5</t>
+  </si>
+  <si>
+    <t>https://t.co/TLgwJFxzwG, https://t.co/WjgF13mnFf</t>
+  </si>
+  <si>
+    <t>2024-12-12 21:13:06.000</t>
+  </si>
+  <si>
+    <t>Sobre el desafío de las olas migratorias en el mundo\n\n“Son las democracias las que se habían comprometido por varias décadas, en crear un régimen de cierta protección para las personas migrantes”: Jaime Abedrapo, autor del libro "Inmigración en Democracias sin memoria. El gran… https://t.co/Uu7eFEBPzi</t>
+  </si>
+  <si>
+    <t>Sobre el desafío de las olas migratorias en el mundo “Son las democracias las que se habían comprometido por varias décadas, en crear un régimen de cierta protección para las personas migrantes”: Jaime Abedrapo, autor del libro "Inmigración en Democracias sin memoria. El gran… https://t.co/Uu7eFEBPzi</t>
+  </si>
+  <si>
+    <t>http://twitter.com/Pauta_cl/statuses/1867316774548705728</t>
+  </si>
+  <si>
+    <t>Pauta_cl</t>
+  </si>
+  <si>
+    <t>https://audiences.brandwatch.com/api/audiences/v1/avatars/twitter/940933520855392257?token=6bf48a259b4f2202d271f3f8293e2d51ad37c704cf8b504f01953202e5068439</t>
+  </si>
+  <si>
+    <t>https://x.com/Pauta_cl/status/1867316774548705728/video/1</t>
+  </si>
+  <si>
+    <t>Pauta_cl (Radio Pauta)</t>
+  </si>
+  <si>
+    <t>a0ebc0187b84ca79b12eaba42405f7c7</t>
+  </si>
+  <si>
+    <t>https://t.co/Uu7eFEBPzi</t>
+  </si>
+  <si>
+    <t>940933520855392257</t>
+  </si>
+  <si>
+    <t>2024-10-17 01:49:12.000</t>
+  </si>
+  <si>
+    <t>#ConexiónCNN | Frank Mora, embajador de EE. UU. ante la OEA, asegura que "hay varios esfuerzos internacionales para que se respete la voluntad del pueblo venezolano", tras las elecciones.\n\nMás en https://t.co/Ox6C5F6K3w https://t.co/n8UgqYTTtg</t>
+  </si>
+  <si>
+    <t>#ConexiónCNN | Frank Mora, embajador de EE. UU. ante la OEA, asegura que "hay varios esfuerzos internacionales para que se respete la voluntad del pueblo venezolano", tras las elecciones. Más en https://t.co/Ox6C5F6K3w https://t.co/n8UgqYTTtg</t>
+  </si>
+  <si>
+    <t>http://twitter.com/CNNChile/statuses/1846730147933675633</t>
+  </si>
+  <si>
+    <t>CNNChile</t>
+  </si>
+  <si>
+    <t>https://audiences.brandwatch.com/api/audiences/v1/avatars/twitter/18248645?token=446fe4f3d45fcc2904f56aa486fb1633426e5b64c3639b263f10827f6d07e10a</t>
+  </si>
+  <si>
+    <t>{id=23504868, name=Venezolano, parentName=Nacionalidades, parentId=23504860}, {id=24560343, name=Integración, parentName=Copy of Categorias BX v.3, parentId=23504967}</t>
+  </si>
+  <si>
+    <t>https://www.cnnchile.com/, https://x.com/CNNChile/status/1846730147933675633/video/1</t>
+  </si>
+  <si>
+    <t>CNNChile (CNN Chile)</t>
+  </si>
+  <si>
+    <t>#conexióncnn</t>
+  </si>
+  <si>
+    <t>Technology, TV</t>
+  </si>
+  <si>
+    <t>752c84ee829e19f8c684ea5ba63eee44</t>
+  </si>
+  <si>
+    <t>http://CNNChile.com, https://t.co/Ox6C5F6K3w, https://t.co/n8UgqYTTtg</t>
+  </si>
+  <si>
+    <t>18248645</t>
+  </si>
+  <si>
+    <t>Venezolano</t>
+  </si>
+  <si>
+    <t>2024-10-17 01:48:51.000</t>
+  </si>
+  <si>
+    <t>#ConexiónCNN | Frank Mora, embajador de EE. UU. en la OEA, asegura que "hay varios esfuerzos internacionales para que se respete la voluntad del pueblo venezolano", tras las elecciones.\n\nMás en https://t.co/Ox6C5F6K3w https://t.co/8WlXJ9BfcK</t>
+  </si>
+  <si>
+    <t>#ConexiónCNN | Frank Mora, embajador de EE. UU. en la OEA, asegura que "hay varios esfuerzos internacionales para que se respete la voluntad del pueblo venezolano", tras las elecciones. Más en https://t.co/Ox6C5F6K3w https://t.co/8WlXJ9BfcK</t>
+  </si>
+  <si>
+    <t>http://twitter.com/CNNChile/statuses/1846730059379306510</t>
+  </si>
+  <si>
+    <t>https://www.cnnchile.com/, https://x.com/CNNChile/status/1846730059379306510/video/1</t>
+  </si>
+  <si>
+    <t>61de991059802400ada4e71a9803f8e4</t>
+  </si>
+  <si>
+    <t>http://CNNChile.com, https://t.co/Ox6C5F6K3w, https://t.co/8WlXJ9BfcK</t>
+  </si>
+  <si>
+    <t>2024-10-05 05:05:46.000</t>
+  </si>
+  <si>
+    <t>“UNO SE VA A VIVIR CON UN ANILLO” 💍😳🔥\n\n👁️ Manuel le propuso a Chama vivir juntos, pero la influencer venezolana no quiere ceder tan fácilmente.\n\n#GranHermanoCHV \n\nLo viste primero SOLO por DIRECTV y @dgo_latam. Sigue viviendo Gran Hermano Chile las 24hrs, y no te pierdas el… https://t.co/feOgyLqAMp</t>
+  </si>
+  <si>
+    <t>“UNO SE VA A VIVIR CON UN ANILLO” 💍😳🔥 👁️ Manuel le propuso a Chama vivir juntos, pero la influencer venezolana no quiere ceder tan fácilmente. #GranHermanoCHV Lo viste primero SOLO por DIRECTV y @dgo_latam. Sigue viviendo Gran Hermano Chile las 24hrs, y no te pierdas el… https://t.co/feOgyLqAMp</t>
+  </si>
+  <si>
+    <t>http://twitter.com/chilevision/statuses/1842430960274379090</t>
+  </si>
+  <si>
+    <t>chilevision</t>
+  </si>
+  <si>
+    <t>https://audiences.brandwatch.com/api/audiences/v1/avatars/twitter/124266832?token=e3bde3b721baace1e013c4a67f740e9c9bbdec4dca5724528fce8fa9ac12ff59</t>
+  </si>
+  <si>
+    <t>https://x.com/chilevision/status/1842430960274379090/video/1</t>
+  </si>
+  <si>
+    <t>chilevision (Chilevisión)</t>
+  </si>
+  <si>
+    <t>#granhermanochv</t>
+  </si>
+  <si>
+    <t>@dgo_latam</t>
+  </si>
+  <si>
+    <t>18a1069c240a2df33ec5e20fa2d97381</t>
+  </si>
+  <si>
+    <t>https://t.co/feOgyLqAMp</t>
+  </si>
+  <si>
+    <t>124266832</t>
+  </si>
+  <si>
+    <t>2024-10-05 04:47:26.000</t>
+  </si>
+  <si>
+    <t>“NO FUE UNA PERSONA LEAL”\n\nTras la pregunta de JP sobre si Chama tendría alguna conversación con Michelle, la influencer venezolana aseguró que no tiene nada pendiente con la brasileña\n\n#GranHermanoCHV\n\nLo viste primero SOLO por DIRECTV y @dgo_latam. Sigue viviendo Gran Hermano… https://t.co/XORWnMGXox</t>
+  </si>
+  <si>
+    <t>“NO FUE UNA PERSONA LEAL” Tras la pregunta de JP sobre si Chama tendría alguna conversación con Michelle, la influencer venezolana aseguró que no tiene nada pendiente con la brasileña #GranHermanoCHV Lo viste primero SOLO por DIRECTV y @dgo_latam. Sigue viviendo Gran Hermano… https://t.co/XORWnMGXox</t>
+  </si>
+  <si>
+    <t>http://twitter.com/chilevision/statuses/1842426347047506193</t>
+  </si>
+  <si>
+    <t>https://x.com/chilevision/status/1842426347047506193/video/1</t>
+  </si>
+  <si>
+    <t>ff9ba73b6fb9a0dff482005989195518</t>
+  </si>
+  <si>
+    <t>https://t.co/XORWnMGXox</t>
   </si>
 </sst>
 </file>
@@ -700,20 +1048,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CT11"/>
+  <dimension ref="A1:DA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -721,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -729,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -737,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -745,7 +1093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -753,7 +1101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -761,7 +1109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -769,7 +1117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -777,7 +1125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -1068,6 +1416,2859 @@
       </c>
       <c r="CT11" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2002059101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" t="s">
+        <v>120</v>
+      </c>
+      <c r="T12" t="s">
+        <v>120</v>
+      </c>
+      <c r="U12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V12" t="s">
+        <v>126</v>
+      </c>
+      <c r="W12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM12">
+        <v>27.9</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP12">
+        <v>307149</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB12">
+        <v>181</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>120</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>126</v>
+      </c>
+      <c r="CY12">
+        <v>181517</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2002059101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>140</v>
+      </c>
+      <c r="R13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S13" t="s">
+        <v>142</v>
+      </c>
+      <c r="T13" t="s">
+        <v>143</v>
+      </c>
+      <c r="U13" t="s">
+        <v>120</v>
+      </c>
+      <c r="V13" t="s">
+        <v>144</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM13">
+        <v>56</v>
+      </c>
+      <c r="AN13">
+        <v>162701</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP13">
+        <v>1414667000</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS13">
+        <v>160889</v>
+      </c>
+      <c r="BT13">
+        <v>2757</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX13">
+        <v>1</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>176452</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB13">
+        <v>21141</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR13">
+        <v>1</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2002059101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>140</v>
+      </c>
+      <c r="R14" t="s">
+        <v>141</v>
+      </c>
+      <c r="S14" t="s">
+        <v>142</v>
+      </c>
+      <c r="T14" t="s">
+        <v>143</v>
+      </c>
+      <c r="U14" t="s">
+        <v>120</v>
+      </c>
+      <c r="V14" t="s">
+        <v>160</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM14">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="AN14">
+        <v>1955409</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP14">
+        <v>1414667000</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS14">
+        <v>1954704</v>
+      </c>
+      <c r="BT14">
+        <v>260</v>
+      </c>
+      <c r="BU14">
+        <v>5</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX14">
+        <v>1</v>
+      </c>
+      <c r="BY14">
+        <v>1</v>
+      </c>
+      <c r="BZ14">
+        <v>357413</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB14">
+        <v>63606</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR14">
+        <v>7</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2002059101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R15" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" t="s">
+        <v>142</v>
+      </c>
+      <c r="T15" t="s">
+        <v>143</v>
+      </c>
+      <c r="U15" t="s">
+        <v>120</v>
+      </c>
+      <c r="V15" t="s">
+        <v>160</v>
+      </c>
+      <c r="W15" t="s">
+        <v>161</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM15">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AN15">
+        <v>1988148</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP15">
+        <v>1414667000</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>166</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS15">
+        <v>1954702</v>
+      </c>
+      <c r="BT15">
+        <v>260</v>
+      </c>
+      <c r="BU15">
+        <v>5</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX15">
+        <v>1</v>
+      </c>
+      <c r="BY15">
+        <v>1</v>
+      </c>
+      <c r="BZ15">
+        <v>357409</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB15">
+        <v>65743</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR15">
+        <v>7</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2002059101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>140</v>
+      </c>
+      <c r="R16" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" t="s">
+        <v>142</v>
+      </c>
+      <c r="T16" t="s">
+        <v>143</v>
+      </c>
+      <c r="U16" t="s">
+        <v>120</v>
+      </c>
+      <c r="V16" t="s">
+        <v>180</v>
+      </c>
+      <c r="W16" t="s">
+        <v>181</v>
+      </c>
+      <c r="X16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM16">
+        <v>42.4</v>
+      </c>
+      <c r="AN16">
+        <v>32546</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP16">
+        <v>1414667000</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS16">
+        <v>32546</v>
+      </c>
+      <c r="BT16">
+        <v>279</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16">
+        <v>147174</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB16">
+        <v>9520</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2002059101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>140</v>
+      </c>
+      <c r="R17" t="s">
+        <v>141</v>
+      </c>
+      <c r="S17" t="s">
+        <v>142</v>
+      </c>
+      <c r="T17" t="s">
+        <v>143</v>
+      </c>
+      <c r="U17" t="s">
+        <v>120</v>
+      </c>
+      <c r="V17" t="s">
+        <v>191</v>
+      </c>
+      <c r="W17" t="s">
+        <v>192</v>
+      </c>
+      <c r="X17" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM17">
+        <v>83.4</v>
+      </c>
+      <c r="AN17">
+        <v>4324537</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS17">
+        <v>4309283</v>
+      </c>
+      <c r="BT17">
+        <v>948</v>
+      </c>
+      <c r="BU17">
+        <v>2</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX17">
+        <v>3</v>
+      </c>
+      <c r="BY17">
+        <v>6</v>
+      </c>
+      <c r="BZ17">
+        <v>531523</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB17">
+        <v>81414</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR17">
+        <v>11</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>2002059101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>140</v>
+      </c>
+      <c r="R18" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" t="s">
+        <v>142</v>
+      </c>
+      <c r="T18" t="s">
+        <v>143</v>
+      </c>
+      <c r="U18" t="s">
+        <v>120</v>
+      </c>
+      <c r="V18" t="s">
+        <v>191</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM18">
+        <v>83.2</v>
+      </c>
+      <c r="AN18">
+        <v>4309283</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>207</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>208</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS18">
+        <v>4309283</v>
+      </c>
+      <c r="BT18">
+        <v>948</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18">
+        <v>531523</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB18">
+        <v>75917</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ18" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>2002059101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>140</v>
+      </c>
+      <c r="R19" t="s">
+        <v>141</v>
+      </c>
+      <c r="S19" t="s">
+        <v>142</v>
+      </c>
+      <c r="T19" t="s">
+        <v>143</v>
+      </c>
+      <c r="U19" t="s">
+        <v>120</v>
+      </c>
+      <c r="V19" t="s">
+        <v>213</v>
+      </c>
+      <c r="W19" t="s">
+        <v>214</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM19">
+        <v>84</v>
+      </c>
+      <c r="AN19">
+        <v>1939032</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP19">
+        <v>1414667000</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>221</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS19">
+        <v>1937988</v>
+      </c>
+      <c r="BT19">
+        <v>510</v>
+      </c>
+      <c r="BU19">
+        <v>47</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX19">
+        <v>13</v>
+      </c>
+      <c r="BY19">
+        <v>91</v>
+      </c>
+      <c r="BZ19">
+        <v>254308</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB19">
+        <v>124723</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR19">
+        <v>151</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ19" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:105" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>2002059101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J20" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" t="s">
+        <v>124</v>
+      </c>
+      <c r="O20" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>140</v>
+      </c>
+      <c r="R20" t="s">
+        <v>141</v>
+      </c>
+      <c r="S20" t="s">
+        <v>142</v>
+      </c>
+      <c r="T20" t="s">
+        <v>143</v>
+      </c>
+      <c r="U20" t="s">
+        <v>120</v>
+      </c>
+      <c r="V20" t="s">
+        <v>213</v>
+      </c>
+      <c r="W20" t="s">
+        <v>214</v>
+      </c>
+      <c r="X20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM20">
+        <v>83</v>
+      </c>
+      <c r="AN20">
+        <v>1938615</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>228</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP20">
+        <v>1414667000</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>221</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS20">
+        <v>1937988</v>
+      </c>
+      <c r="BT20">
+        <v>510</v>
+      </c>
+      <c r="BU20">
+        <v>40</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX20">
+        <v>9</v>
+      </c>
+      <c r="BY20">
+        <v>67</v>
+      </c>
+      <c r="BZ20">
+        <v>254306</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>167</v>
+      </c>
+      <c r="CB20">
+        <v>113989</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CQ20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CR20">
+        <v>116</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CT20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CU20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CW20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CX20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CY20" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ20" t="s">
+        <v>14</v>
+      </c>
+      <c r="DA20" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
